--- a/import1.xlsx
+++ b/import1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D356059-2236-47A6-87ED-5FC4273F7763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CB3AD7-E979-45EE-BF2A-D1FFCC3C7B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>bookId</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>Nhà Xuất Bản Bách Khoa Hà Nội</t>
+  </si>
+  <si>
+    <t>9780666578140</t>
+  </si>
+  <si>
+    <t>Bài Giảng Tư Tưởng Hồ Chí Minh 2</t>
   </si>
 </sst>
 </file>
@@ -431,12 +437,16 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="11.8984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.796875" customWidth="1"/>
+    <col min="3" max="3" width="16.8984375" customWidth="1"/>
+    <col min="4" max="4" width="29.296875" customWidth="1"/>
+    <col min="5" max="5" width="7.296875" customWidth="1"/>
+    <col min="6" max="6" width="17.59765625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -482,6 +492,24 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>164</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>2021</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
